--- a/story_xlsx_files_postpilotiiedits/44.xlsx
+++ b/story_xlsx_files_postpilotiiedits/44.xlsx
@@ -92,7 +92,7 @@
     <t>When Ariana read this, she looked at him and nodded her head</t>
   </si>
   <si>
-    <t>She wrote back on the slip of paper, “Let’s meet at 8 in front of my dorm, Patton Hall.”</t>
+    <t>She wrote back on the slip of paper: “Let’s meet at 8 in front of my dorm, Patton Hall.”</t>
   </si>
   <si>
     <t xml:space="preserve">The professor ended the lecture and announced to the class that they would have their first quiz next class on Friday on mummification. </t>
